--- a/Predictions_&_Comparisons.xlsx
+++ b/Predictions_&_Comparisons.xlsx
@@ -1,23 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thops\OneDrive\Desktop\2023\github projects\NBA Drafted Player Impact\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{537FD3EE-AD1A-4E6B-92D6-A00FC966756F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A54D53DC-46BB-45FB-A4D1-9DC2D3E17AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Predictions" sheetId="1" r:id="rId1"/>
+    <sheet name="Comparisons" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>Player</t>
   </si>
@@ -100,9 +103,6 @@
     <t>Memphis Grizzlies</t>
   </si>
   <si>
-    <t>Miami Hear</t>
-  </si>
-  <si>
     <t>Milwaukee Bucks</t>
   </si>
   <si>
@@ -153,6 +153,39 @@
   <si>
     <t>Points Pred</t>
   </si>
+  <si>
+    <t>Miami Heat</t>
+  </si>
+  <si>
+    <t>Overall Pick</t>
+  </si>
+  <si>
+    <t>Worst Teams</t>
+  </si>
+  <si>
+    <t>Best Teams</t>
+  </si>
+  <si>
+    <t>Pick No.</t>
+  </si>
+  <si>
+    <t>Wins</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>Prediction 22/23</t>
+  </si>
+  <si>
+    <t>Actual 22/23</t>
+  </si>
+  <si>
+    <t>Actual 21/22</t>
+  </si>
+  <si>
+    <t>Ranking 21/22</t>
+  </si>
 </sst>
 </file>
 
@@ -183,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -206,15 +239,170 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -230,6 +418,4429 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Worst</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Team Wins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$R$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 21/22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$O$3:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Houston Rockets</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$R$3:$R$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1F6A-40C2-91BB-CA3BD0DAFC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$O$3:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Houston Rockets</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$S$3:$S$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25.316455696202532</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24.892857142857142</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.27272727272727</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18.027027027027028</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.507462686567166</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1F6A-40C2-91BB-CA3BD0DAFC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$T$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$T$3:$T$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1F6A-40C2-91BB-CA3BD0DAFC75}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1428522143"/>
+        <c:axId val="1319038623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428522143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319038623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319038623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428522143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Worst</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Team Points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$U$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 21/22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$O$3:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Houston Rockets</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$U$3:$U$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>8997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8547</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8547</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8596</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5265-427A-BB5A-79D9732C3B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$V$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$O$3:$O$7</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Houston Rockets</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Orlando Magic</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Detroit Pistons</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$V$3:$V$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10628.380645161291</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10954.807692307693</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10998.242553191491</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10669.40192926045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10041.767068273093</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5265-427A-BB5A-79D9732C3B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$W$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$W$3:$W$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9269</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9045</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9045</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5265-427A-BB5A-79D9732C3B39}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1428522143"/>
+        <c:axId val="1319038623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428522143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319038623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319038623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428522143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Best</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Team Wins</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$AC$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 21/22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$Z$3:$Z$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miami Heat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dallas Mavericks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$AC$3:$AC$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FBD-48F0-AFAC-5A1ED1A6262F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$AD$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$Z$3:$Z$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miami Heat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dallas Mavericks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$AD$3:$AD$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.866666666666667</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.35483870967742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>30.916666666666664</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.266666666666666</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30.333333333333336</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9FBD-48F0-AFAC-5A1ED1A6262F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$AE$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$Z$3:$Z$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miami Heat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dallas Mavericks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$AE$3:$AE$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9FBD-48F0-AFAC-5A1ED1A6262F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1428522143"/>
+        <c:axId val="1319038623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428522143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319038623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319038623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428522143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-ZA"/>
+              <a:t>Best</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-ZA" baseline="0"/>
+              <a:t> Team Points</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ZA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$AF$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 21/22</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$Z$3:$Z$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miami Heat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dallas Mavericks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$AF$3:$AF$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9480</c:v>
+                </c:pt>
+                <c:pt idx="4" formatCode="General">
+                  <c:v>9102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9022</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8858</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B7D9-42BC-8BEA-FAF345727DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$AG$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Prediction 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$Z$3:$Z$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miami Heat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dallas Mavericks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$AG$3:$AG$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10952.511111111113</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10485.762711864407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10595.794871794873</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10610.285714285714</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11210.13698630137</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10543.807692307691</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10627.919117647058</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11207.243243243245</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B7D9-42BC-8BEA-FAF345727DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Comparisons!$AH$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual 22/23</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Comparisons!$Z$3:$Z$10</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Memphis Grizzlies</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Golden State Warriors</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Miami Heat</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Dallas Mavericks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Comparisons!$AH$3:$AH$10</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>9587</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9587</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9587</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9753</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9753</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8977</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9366</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B7D9-42BC-8BEA-FAF345727DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1428522143"/>
+        <c:axId val="1319038623"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428522143"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1319038623"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1319038623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428522143"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ADB8F9B-43F1-40A5-AE73-6DD9861C1DBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D6523EF-2DDC-49C1-B1AB-C882F62D6B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8847B734-0215-411F-A890-73F6AD0EE0A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Chart 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA8D4EFC-2680-425B-9EE1-CC71912A3852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1662,6 +6273,687 @@
           </cell>
           <cell r="H31" t="str">
             <v>8997</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="2022-23 Stats"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>Ranking</v>
+          </cell>
+          <cell r="B1" t="str">
+            <v>Team</v>
+          </cell>
+          <cell r="C1" t="str">
+            <v>Wins</v>
+          </cell>
+          <cell r="D1" t="str">
+            <v>Losses</v>
+          </cell>
+          <cell r="E1" t="str">
+            <v>Points</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>1</v>
+          </cell>
+          <cell r="B2" t="str">
+            <v>Milwaukee Bucks</v>
+          </cell>
+          <cell r="C2" t="str">
+            <v>58</v>
+          </cell>
+          <cell r="D2" t="str">
+            <v>24</v>
+          </cell>
+          <cell r="E2" t="str">
+            <v>9589</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>4</v>
+          </cell>
+          <cell r="B5" t="str">
+            <v>Denver Nuggets</v>
+          </cell>
+          <cell r="C5" t="str">
+            <v>53</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>29</v>
+          </cell>
+          <cell r="E5" t="str">
+            <v>9495</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="B6" t="str">
+            <v>Cleveland Cavaliers</v>
+          </cell>
+          <cell r="C6" t="str">
+            <v>51</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>31</v>
+          </cell>
+          <cell r="E6" t="str">
+            <v>9205</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>5</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Memphis Grizzlies</v>
+          </cell>
+          <cell r="C7" t="str">
+            <v>51</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>31</v>
+          </cell>
+          <cell r="E7" t="str">
+            <v>9587</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>7</v>
+          </cell>
+          <cell r="B8" t="str">
+            <v>Sacramento Kings</v>
+          </cell>
+          <cell r="C8" t="str">
+            <v>48</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>34</v>
+          </cell>
+          <cell r="E8" t="str">
+            <v>9898</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>11</v>
+          </cell>
+          <cell r="B12" t="str">
+            <v>Golden State Warriors</v>
+          </cell>
+          <cell r="C12" t="str">
+            <v>44</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>38</v>
+          </cell>
+          <cell r="E12" t="str">
+            <v>9753</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>11</v>
+          </cell>
+          <cell r="B13" t="str">
+            <v>LA Clippers</v>
+          </cell>
+          <cell r="C13" t="str">
+            <v>44</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>38</v>
+          </cell>
+          <cell r="E13" t="str">
+            <v>9314</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>11</v>
+          </cell>
+          <cell r="B14" t="str">
+            <v>Miami Heat</v>
+          </cell>
+          <cell r="C14" t="str">
+            <v>44</v>
+          </cell>
+          <cell r="D14" t="str">
+            <v>38</v>
+          </cell>
+          <cell r="E14" t="str">
+            <v>8977</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>14</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Los Angeles Lakers</v>
+          </cell>
+          <cell r="C15" t="str">
+            <v>43</v>
+          </cell>
+          <cell r="D15" t="str">
+            <v>39</v>
+          </cell>
+          <cell r="E15" t="str">
+            <v>9608</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>15</v>
+          </cell>
+          <cell r="B16" t="str">
+            <v>Minnesota Timberwolves</v>
+          </cell>
+          <cell r="C16" t="str">
+            <v>42</v>
+          </cell>
+          <cell r="D16" t="str">
+            <v>40</v>
+          </cell>
+          <cell r="E16" t="str">
+            <v>9494</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>15</v>
+          </cell>
+          <cell r="B17" t="str">
+            <v>New Orleans Pelicans</v>
+          </cell>
+          <cell r="C17" t="str">
+            <v>42</v>
+          </cell>
+          <cell r="D17" t="str">
+            <v>40</v>
+          </cell>
+          <cell r="E17" t="str">
+            <v>9378</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>17</v>
+          </cell>
+          <cell r="B18" t="str">
+            <v>Atlanta Hawks</v>
+          </cell>
+          <cell r="C18" t="str">
+            <v>41</v>
+          </cell>
+          <cell r="D18" t="str">
+            <v>41</v>
+          </cell>
+          <cell r="E18" t="str">
+            <v>9711</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>17</v>
+          </cell>
+          <cell r="B19" t="str">
+            <v>Toronto Raptors</v>
+          </cell>
+          <cell r="C19" t="str">
+            <v>41</v>
+          </cell>
+          <cell r="D19" t="str">
+            <v>41</v>
+          </cell>
+          <cell r="E19" t="str">
+            <v>9254</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>19</v>
+          </cell>
+          <cell r="B20" t="str">
+            <v>Chicago Bulls</v>
+          </cell>
+          <cell r="C20" t="str">
+            <v>40</v>
+          </cell>
+          <cell r="D20" t="str">
+            <v>42</v>
+          </cell>
+          <cell r="E20" t="str">
+            <v>9276</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>19</v>
+          </cell>
+          <cell r="B21" t="str">
+            <v>Oklahoma City Thunder</v>
+          </cell>
+          <cell r="C21" t="str">
+            <v>40</v>
+          </cell>
+          <cell r="D21" t="str">
+            <v>42</v>
+          </cell>
+          <cell r="E21" t="str">
+            <v>9633</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>21</v>
+          </cell>
+          <cell r="B22" t="str">
+            <v>Dallas Mavericks</v>
+          </cell>
+          <cell r="C22" t="str">
+            <v>38</v>
+          </cell>
+          <cell r="D22" t="str">
+            <v>44</v>
+          </cell>
+          <cell r="E22" t="str">
+            <v>9366</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>22</v>
+          </cell>
+          <cell r="B23" t="str">
+            <v>Utah Jazz</v>
+          </cell>
+          <cell r="C23" t="str">
+            <v>37</v>
+          </cell>
+          <cell r="D23" t="str">
+            <v>45</v>
+          </cell>
+          <cell r="E23" t="str">
+            <v>9600</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>23</v>
+          </cell>
+          <cell r="B24" t="str">
+            <v>Indiana Pacers</v>
+          </cell>
+          <cell r="C24" t="str">
+            <v>35</v>
+          </cell>
+          <cell r="D24" t="str">
+            <v>47</v>
+          </cell>
+          <cell r="E24" t="str">
+            <v>9535</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>23</v>
+          </cell>
+          <cell r="B25" t="str">
+            <v>Washington Wizards</v>
+          </cell>
+          <cell r="C25" t="str">
+            <v>35</v>
+          </cell>
+          <cell r="D25" t="str">
+            <v>47</v>
+          </cell>
+          <cell r="E25" t="str">
+            <v>9279</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>25</v>
+          </cell>
+          <cell r="B26" t="str">
+            <v>Orlando Magic</v>
+          </cell>
+          <cell r="C26" t="str">
+            <v>34</v>
+          </cell>
+          <cell r="D26" t="str">
+            <v>48</v>
+          </cell>
+          <cell r="E26" t="str">
+            <v>9136</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>26</v>
+          </cell>
+          <cell r="B27" t="str">
+            <v>Portland Trail Blazers</v>
+          </cell>
+          <cell r="C27" t="str">
+            <v>33</v>
+          </cell>
+          <cell r="D27" t="str">
+            <v>49</v>
+          </cell>
+          <cell r="E27" t="str">
+            <v>9299</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>27</v>
+          </cell>
+          <cell r="B28" t="str">
+            <v>Charlotte Hornets</v>
+          </cell>
+          <cell r="C28" t="str">
+            <v>27</v>
+          </cell>
+          <cell r="D28" t="str">
+            <v>55</v>
+          </cell>
+          <cell r="E28" t="str">
+            <v>9098</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>28</v>
+          </cell>
+          <cell r="B29" t="str">
+            <v>Houston Rockets</v>
+          </cell>
+          <cell r="C29" t="str">
+            <v>22</v>
+          </cell>
+          <cell r="D29" t="str">
+            <v>60</v>
+          </cell>
+          <cell r="E29" t="str">
+            <v>9081</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>28</v>
+          </cell>
+          <cell r="B30" t="str">
+            <v>San Antonio Spurs</v>
+          </cell>
+          <cell r="C30" t="str">
+            <v>22</v>
+          </cell>
+          <cell r="D30" t="str">
+            <v>60</v>
+          </cell>
+          <cell r="E30" t="str">
+            <v>9269</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>30</v>
+          </cell>
+          <cell r="B31" t="str">
+            <v>Detroit Pistons</v>
+          </cell>
+          <cell r="C31" t="str">
+            <v>17</v>
+          </cell>
+          <cell r="D31" t="str">
+            <v>65</v>
+          </cell>
+          <cell r="E31" t="str">
+            <v>9045</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="2022 Drafts"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="2">
+          <cell r="F2" t="str">
+            <v>1</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="F4" t="str">
+            <v>3</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="F5" t="str">
+            <v>4</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="F6" t="str">
+            <v>5</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="F7" t="str">
+            <v>6</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="F8" t="str">
+            <v>7</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="F9" t="str">
+            <v>8</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="F10" t="str">
+            <v>9</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="F11" t="str">
+            <v>10</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="F12" t="str">
+            <v>11</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="F13" t="str">
+            <v>12</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="F14" t="str">
+            <v>13</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="F15" t="str">
+            <v>14</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="F16" t="str">
+            <v>15</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="F17" t="str">
+            <v>16</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="F18" t="str">
+            <v>17</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="F19" t="str">
+            <v>18</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="F20" t="str">
+            <v>19</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="F21" t="str">
+            <v>20</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="F22" t="str">
+            <v>21</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="F23" t="str">
+            <v>22</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="F24" t="str">
+            <v>23</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="F25" t="str">
+            <v>24</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="F26" t="str">
+            <v>25</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="F28" t="str">
+            <v>27</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="F29" t="str">
+            <v>28</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="F30" t="str">
+            <v>29</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="F31" t="str">
+            <v>30</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="F32" t="str">
+            <v>31</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="F33" t="str">
+            <v>32</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="F34" t="str">
+            <v>33</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="F35" t="str">
+            <v>34</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="F36" t="str">
+            <v>35</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="F38" t="str">
+            <v>37</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="F39" t="str">
+            <v>38</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="F41" t="str">
+            <v>40</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="F44" t="str">
+            <v>43</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="F45" t="str">
+            <v>44</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="F46" t="str">
+            <v>45</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="F48" t="str">
+            <v>47</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="F50" t="str">
+            <v>49</v>
           </cell>
         </row>
       </sheetData>
@@ -1935,9 +7227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1970,31 +7260,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
@@ -3067,7 +8357,7 @@
         <v>MIA</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="D22">
         <f>'[1]2022 Draft Stats'!$D22/'[1]2022 Draft Stats'!$C22</f>
@@ -3173,7 +8463,7 @@
         <v>MIL</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24">
         <f>'[1]2022 Draft Stats'!$D24/'[1]2022 Draft Stats'!$C24</f>
@@ -3332,7 +8622,7 @@
         <v>DEN</v>
       </c>
       <c r="C27" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D27">
         <f>'[1]2022 Draft Stats'!$D27/'[1]2022 Draft Stats'!$C27</f>
@@ -3438,7 +8728,7 @@
         <v>GSW</v>
       </c>
       <c r="C29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <f>'[1]2022 Draft Stats'!$D29/'[1]2022 Draft Stats'!$C29</f>
@@ -3597,7 +8887,7 @@
         <v>DEN</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D32">
         <f>'[1]2022 Draft Stats'!$D32/'[1]2022 Draft Stats'!$C32</f>
@@ -3650,7 +8940,7 @@
         <v>TOR</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D33">
         <f>'[1]2022 Draft Stats'!$D33/'[1]2022 Draft Stats'!$C33</f>
@@ -3703,7 +8993,7 @@
         <v>LAL</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34">
         <f>'[1]2022 Draft Stats'!$D34/'[1]2022 Draft Stats'!$C34</f>
@@ -3756,7 +9046,7 @@
         <v>MIN</v>
       </c>
       <c r="C35" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D35">
         <f>'[1]2022 Draft Stats'!$D35/'[1]2022 Draft Stats'!$C35</f>
@@ -3862,7 +9152,7 @@
         <v>LAC</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37">
         <f>'[1]2022 Draft Stats'!$D37/'[1]2022 Draft Stats'!$C37</f>
@@ -3915,7 +9205,7 @@
         <v>CLE</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D38">
         <f>'[1]2022 Draft Stats'!$D38/'[1]2022 Draft Stats'!$C38</f>
@@ -3968,7 +9258,7 @@
         <v>CHI</v>
       </c>
       <c r="C39" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39">
         <f>'[1]2022 Draft Stats'!$D39/'[1]2022 Draft Stats'!$C39</f>
@@ -4127,7 +9417,7 @@
         <v>GSW</v>
       </c>
       <c r="C42" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <f>'[1]2022 Draft Stats'!$D42/'[1]2022 Draft Stats'!$C42</f>
@@ -4173,4 +9463,2538 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D35BF9B-E2BA-4784-A29D-88BA2E3CB478}">
+  <dimension ref="A1:AH42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R13" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:Q1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="15" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="1" t="str">
+        <f>Predictions!A1</f>
+        <v>Player</v>
+      </c>
+      <c r="C1" s="1" t="str">
+        <f>Predictions!C1</f>
+        <v>Team</v>
+      </c>
+      <c r="D1" s="1" t="str">
+        <f>Predictions!G1</f>
+        <v>Wins Pred</v>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f>Predictions!H1</f>
+        <v>Losses Pred</v>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f>Predictions!M1</f>
+        <v>Points Pred</v>
+      </c>
+      <c r="H1" s="3" t="str">
+        <f>'[3]2022-23 Stats'!A$1</f>
+        <v>Ranking</v>
+      </c>
+      <c r="I1" s="4" t="str">
+        <f>'[3]2022-23 Stats'!B$1</f>
+        <v>Team</v>
+      </c>
+      <c r="J1" s="4" t="str">
+        <f>'[3]2022-23 Stats'!C$1</f>
+        <v>Wins</v>
+      </c>
+      <c r="K1" s="4" t="str">
+        <f>'[3]2022-23 Stats'!D$1</f>
+        <v>Losses</v>
+      </c>
+      <c r="L1" s="5" t="str">
+        <f>'[3]2022-23 Stats'!E$1</f>
+        <v>Points</v>
+      </c>
+      <c r="N1" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="27"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
+      <c r="Y1" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z1" s="27"/>
+      <c r="AA1" s="27"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD1" s="27"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG1" s="24"/>
+      <c r="AH1" s="25"/>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A2" t="str">
+        <f>'[4]2022 Drafts'!$F$2</f>
+        <v>1</v>
+      </c>
+      <c r="B2" t="str">
+        <f>Predictions!A2</f>
+        <v>Paolo Banchero</v>
+      </c>
+      <c r="C2" t="str">
+        <f>Predictions!C2</f>
+        <v>Orlando Magic</v>
+      </c>
+      <c r="D2" s="2">
+        <f>Predictions!G2</f>
+        <v>31.472222222222225</v>
+      </c>
+      <c r="E2" s="2">
+        <f>Predictions!H2</f>
+        <v>50.527777777777771</v>
+      </c>
+      <c r="F2" s="2">
+        <f>Predictions!M2</f>
+        <v>10894.774480712167</v>
+      </c>
+      <c r="H2" t="str">
+        <f>'[3]2022-23 Stats'!A$26</f>
+        <v>25</v>
+      </c>
+      <c r="I2" t="str">
+        <f>'[3]2022-23 Stats'!B$26</f>
+        <v>Orlando Magic</v>
+      </c>
+      <c r="J2" t="str">
+        <f>'[3]2022-23 Stats'!C$26</f>
+        <v>34</v>
+      </c>
+      <c r="K2" t="str">
+        <f>'[3]2022-23 Stats'!D$26</f>
+        <v>48</v>
+      </c>
+      <c r="L2" t="str">
+        <f>'[3]2022-23 Stats'!E$26</f>
+        <v>9136</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="T2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="V2" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W2" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH2" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" t="str">
+        <f>'[4]2022 Drafts'!$F$7</f>
+        <v>6</v>
+      </c>
+      <c r="B3" t="str">
+        <f>Predictions!A3</f>
+        <v>Bennedict Mathurin</v>
+      </c>
+      <c r="C3" t="str">
+        <f>Predictions!C3</f>
+        <v>Indiana Pacers</v>
+      </c>
+      <c r="D3" s="2">
+        <f>Predictions!G3</f>
+        <v>35.576923076923073</v>
+      </c>
+      <c r="E3" s="2">
+        <f>Predictions!H3</f>
+        <v>46.423076923076927</v>
+      </c>
+      <c r="F3" s="2">
+        <f>Predictions!M3</f>
+        <v>11469.796491228071</v>
+      </c>
+      <c r="H3" t="str">
+        <f>'[3]2022-23 Stats'!A$24</f>
+        <v>23</v>
+      </c>
+      <c r="I3" t="str">
+        <f>'[3]2022-23 Stats'!B$24</f>
+        <v>Indiana Pacers</v>
+      </c>
+      <c r="J3" t="str">
+        <f>'[3]2022-23 Stats'!C$24</f>
+        <v>35</v>
+      </c>
+      <c r="K3" t="str">
+        <f>'[3]2022-23 Stats'!D$24</f>
+        <v>47</v>
+      </c>
+      <c r="L3" t="str">
+        <f>'[3]2022-23 Stats'!E$24</f>
+        <v>9535</v>
+      </c>
+      <c r="N3" s="10">
+        <v>30</v>
+      </c>
+      <c r="O3" s="20" t="str">
+        <f>I6</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="P3" s="10" t="str">
+        <f>A6</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="11" t="str">
+        <f>B6</f>
+        <v>Jabari Smith Jr.</v>
+      </c>
+      <c r="R3" s="20">
+        <v>20</v>
+      </c>
+      <c r="S3" s="12">
+        <f>D6</f>
+        <v>25.316455696202532</v>
+      </c>
+      <c r="T3" s="12">
+        <v>22</v>
+      </c>
+      <c r="U3" s="10">
+        <v>8997</v>
+      </c>
+      <c r="V3" s="12">
+        <f>F6</f>
+        <v>10628.380645161291</v>
+      </c>
+      <c r="W3" s="14">
+        <v>9081</v>
+      </c>
+      <c r="Y3" s="10">
+        <v>2</v>
+      </c>
+      <c r="Z3" s="20" t="str">
+        <f>I19</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="AA3" s="10" t="str">
+        <f>A19</f>
+        <v>23</v>
+      </c>
+      <c r="AB3" s="11" t="str">
+        <f>B19</f>
+        <v>David Roddy</v>
+      </c>
+      <c r="AC3" s="10">
+        <v>56</v>
+      </c>
+      <c r="AD3" s="12">
+        <f>D19</f>
+        <v>20.8</v>
+      </c>
+      <c r="AE3" s="14">
+        <v>51</v>
+      </c>
+      <c r="AF3" s="13">
+        <v>9480</v>
+      </c>
+      <c r="AG3" s="12">
+        <f>F19</f>
+        <v>10952.511111111113</v>
+      </c>
+      <c r="AH3" s="14">
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A4" t="str">
+        <f>'[4]2022 Drafts'!$F$6</f>
+        <v>5</v>
+      </c>
+      <c r="B4" t="str">
+        <f>Predictions!A4</f>
+        <v>Jaden Ivey</v>
+      </c>
+      <c r="C4" t="str">
+        <f>Predictions!C4</f>
+        <v>Detroit Pistons</v>
+      </c>
+      <c r="D4" s="2">
+        <f>Predictions!G4</f>
+        <v>18.027027027027028</v>
+      </c>
+      <c r="E4" s="2">
+        <f>Predictions!H4</f>
+        <v>63.972972972972968</v>
+      </c>
+      <c r="F4" s="2">
+        <f>Predictions!M4</f>
+        <v>10669.40192926045</v>
+      </c>
+      <c r="H4" t="str">
+        <f>'[3]2022-23 Stats'!A$31</f>
+        <v>30</v>
+      </c>
+      <c r="I4" t="str">
+        <f>'[3]2022-23 Stats'!B$31</f>
+        <v>Detroit Pistons</v>
+      </c>
+      <c r="J4" t="str">
+        <f>'[3]2022-23 Stats'!C$31</f>
+        <v>17</v>
+      </c>
+      <c r="K4" t="str">
+        <f>'[3]2022-23 Stats'!D$31</f>
+        <v>65</v>
+      </c>
+      <c r="L4" t="str">
+        <f>'[3]2022-23 Stats'!E$31</f>
+        <v>9045</v>
+      </c>
+      <c r="N4" s="6">
+        <v>29</v>
+      </c>
+      <c r="O4" t="str">
+        <f>I2</f>
+        <v>Orlando Magic</v>
+      </c>
+      <c r="P4" s="6" t="str">
+        <f>A8</f>
+        <v>9</v>
+      </c>
+      <c r="Q4" s="7" t="str">
+        <f>B8</f>
+        <v>Jeremy Sochan</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2">
+        <f>D8</f>
+        <v>24.892857142857142</v>
+      </c>
+      <c r="T4" s="2">
+        <v>22</v>
+      </c>
+      <c r="U4" s="6">
+        <v>8547</v>
+      </c>
+      <c r="V4" s="2">
+        <f>F8</f>
+        <v>10954.807692307693</v>
+      </c>
+      <c r="W4" s="9">
+        <v>9269</v>
+      </c>
+      <c r="Y4" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z4" t="str">
+        <f>I36</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="AA4" s="6" t="str">
+        <f>A36</f>
+        <v>19</v>
+      </c>
+      <c r="AB4" s="7" t="str">
+        <f>B36</f>
+        <v>Jake LaRavia</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>56</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>D36</f>
+        <v>20.8</v>
+      </c>
+      <c r="AE4" s="9">
+        <v>51</v>
+      </c>
+      <c r="AF4" s="8">
+        <v>9480</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>F36</f>
+        <v>10485.762711864407</v>
+      </c>
+      <c r="AH4" s="9">
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" t="str">
+        <f>'[4]2022 Drafts'!$F$13</f>
+        <v>12</v>
+      </c>
+      <c r="B5" t="str">
+        <f>Predictions!A5</f>
+        <v>Jalen Williams</v>
+      </c>
+      <c r="C5" t="str">
+        <f>Predictions!C5</f>
+        <v>Oklahoma City Thunder</v>
+      </c>
+      <c r="D5" s="2">
+        <f>Predictions!G5</f>
+        <v>35.519999999999996</v>
+      </c>
+      <c r="E5" s="2">
+        <f>Predictions!H5</f>
+        <v>46.480000000000004</v>
+      </c>
+      <c r="F5" s="2">
+        <f>Predictions!M5</f>
+        <v>10349.237623762376</v>
+      </c>
+      <c r="H5" t="str">
+        <f>'[3]2022-23 Stats'!A$21</f>
+        <v>19</v>
+      </c>
+      <c r="I5" t="str">
+        <f>'[3]2022-23 Stats'!B$21</f>
+        <v>Oklahoma City Thunder</v>
+      </c>
+      <c r="J5" t="str">
+        <f>'[3]2022-23 Stats'!C$21</f>
+        <v>40</v>
+      </c>
+      <c r="K5" t="str">
+        <f>'[3]2022-23 Stats'!D$21</f>
+        <v>42</v>
+      </c>
+      <c r="L5" t="str">
+        <f>'[3]2022-23 Stats'!E$21</f>
+        <v>9633</v>
+      </c>
+      <c r="N5" s="6">
+        <v>29</v>
+      </c>
+      <c r="O5" t="str">
+        <f>I31</f>
+        <v>Orlando Magic</v>
+      </c>
+      <c r="P5" s="6" t="str">
+        <f>A9</f>
+        <v>20</v>
+      </c>
+      <c r="Q5" s="7" t="str">
+        <f>B9</f>
+        <v>Malaki Branham</v>
+      </c>
+      <c r="R5">
+        <v>22</v>
+      </c>
+      <c r="S5" s="2">
+        <f>D9</f>
+        <v>26.27272727272727</v>
+      </c>
+      <c r="T5" s="2">
+        <v>22</v>
+      </c>
+      <c r="U5" s="6">
+        <v>8547</v>
+      </c>
+      <c r="V5" s="2">
+        <f>F9</f>
+        <v>10998.242553191491</v>
+      </c>
+      <c r="W5" s="9">
+        <v>9269</v>
+      </c>
+      <c r="Y5" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z5" t="str">
+        <f>I40</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="AA5" s="6" t="str">
+        <f>A40</f>
+        <v>38</v>
+      </c>
+      <c r="AB5" s="7" t="str">
+        <f>B40</f>
+        <v>Kennedy Chandler</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>56</v>
+      </c>
+      <c r="AD5" s="2">
+        <f>D40</f>
+        <v>21.777777777777779</v>
+      </c>
+      <c r="AE5" s="9">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="8">
+        <v>9480</v>
+      </c>
+      <c r="AG5" s="2">
+        <f>F40</f>
+        <v>10595.794871794873</v>
+      </c>
+      <c r="AH5" s="9">
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" t="str">
+        <f>'[4]2022 Drafts'!$F$4</f>
+        <v>3</v>
+      </c>
+      <c r="B6" t="str">
+        <f>Predictions!A6</f>
+        <v>Jabari Smith Jr.</v>
+      </c>
+      <c r="C6" t="str">
+        <f>Predictions!C6</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="D6" s="2">
+        <f>Predictions!G6</f>
+        <v>25.316455696202532</v>
+      </c>
+      <c r="E6" s="2">
+        <f>Predictions!H6</f>
+        <v>56.683544303797468</v>
+      </c>
+      <c r="F6" s="2">
+        <f>Predictions!M6</f>
+        <v>10628.380645161291</v>
+      </c>
+      <c r="H6" t="str">
+        <f>'[3]2022-23 Stats'!A$29</f>
+        <v>28</v>
+      </c>
+      <c r="I6" t="str">
+        <f>'[3]2022-23 Stats'!B$29</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="J6" t="str">
+        <f>'[3]2022-23 Stats'!C$29</f>
+        <v>22</v>
+      </c>
+      <c r="K6" t="str">
+        <f>'[3]2022-23 Stats'!D$29</f>
+        <v>60</v>
+      </c>
+      <c r="L6" t="str">
+        <f>'[3]2022-23 Stats'!E$29</f>
+        <v>9081</v>
+      </c>
+      <c r="N6" s="6">
+        <v>28</v>
+      </c>
+      <c r="O6" t="str">
+        <f>I4</f>
+        <v>Detroit Pistons</v>
+      </c>
+      <c r="P6" s="6" t="str">
+        <f>A4</f>
+        <v>5</v>
+      </c>
+      <c r="Q6" s="7" t="str">
+        <f>B4</f>
+        <v>Jaden Ivey</v>
+      </c>
+      <c r="R6">
+        <v>23</v>
+      </c>
+      <c r="S6" s="2">
+        <f>D4</f>
+        <v>18.027027027027028</v>
+      </c>
+      <c r="T6" s="2">
+        <v>17</v>
+      </c>
+      <c r="U6" s="6">
+        <v>8596</v>
+      </c>
+      <c r="V6" s="2">
+        <f>F4</f>
+        <v>10669.40192926045</v>
+      </c>
+      <c r="W6" s="9">
+        <v>9045</v>
+      </c>
+      <c r="Y6" s="6">
+        <v>2</v>
+      </c>
+      <c r="Z6" t="str">
+        <f>I41</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="AA6" s="6" t="str">
+        <f>A41</f>
+        <v>47</v>
+      </c>
+      <c r="AB6" s="7" t="str">
+        <f>B41</f>
+        <v>Vince Williams Jr.</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>56</v>
+      </c>
+      <c r="AD6" s="2">
+        <f>D41</f>
+        <v>29.866666666666667</v>
+      </c>
+      <c r="AE6" s="9">
+        <v>51</v>
+      </c>
+      <c r="AF6" s="8">
+        <v>9480</v>
+      </c>
+      <c r="AG6" s="2">
+        <f>F41</f>
+        <v>10610.285714285714</v>
+      </c>
+      <c r="AH6" s="9">
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" t="str">
+        <f>'[4]2022 Drafts'!$F$5</f>
+        <v>4</v>
+      </c>
+      <c r="B7" t="str">
+        <f>Predictions!A7</f>
+        <v>Keegan Murray</v>
+      </c>
+      <c r="C7" t="str">
+        <f>Predictions!C7</f>
+        <v>Sacramento Kings</v>
+      </c>
+      <c r="D7" s="2">
+        <f>Predictions!G7</f>
+        <v>47.625</v>
+      </c>
+      <c r="E7" s="2">
+        <f>Predictions!H7</f>
+        <v>34.375</v>
+      </c>
+      <c r="F7" s="2">
+        <f>Predictions!M7</f>
+        <v>10666.617449664429</v>
+      </c>
+      <c r="H7" t="str">
+        <f>'[3]2022-23 Stats'!A$8</f>
+        <v>7</v>
+      </c>
+      <c r="I7" t="str">
+        <f>'[3]2022-23 Stats'!B$8</f>
+        <v>Sacramento Kings</v>
+      </c>
+      <c r="J7" t="str">
+        <f>'[3]2022-23 Stats'!C$8</f>
+        <v>48</v>
+      </c>
+      <c r="K7" t="str">
+        <f>'[3]2022-23 Stats'!D$8</f>
+        <v>34</v>
+      </c>
+      <c r="L7" t="str">
+        <f>'[3]2022-23 Stats'!E$8</f>
+        <v>9898</v>
+      </c>
+      <c r="N7" s="15">
+        <v>28</v>
+      </c>
+      <c r="O7" s="21" t="str">
+        <f>I14</f>
+        <v>Detroit Pistons</v>
+      </c>
+      <c r="P7" s="15" t="str">
+        <f>A14</f>
+        <v>13</v>
+      </c>
+      <c r="Q7" s="16" t="str">
+        <f>B14</f>
+        <v>Jalen Duren</v>
+      </c>
+      <c r="R7" s="21">
+        <v>23</v>
+      </c>
+      <c r="S7" s="17">
+        <f>D14</f>
+        <v>17.507462686567166</v>
+      </c>
+      <c r="T7" s="17">
+        <v>17</v>
+      </c>
+      <c r="U7" s="15">
+        <v>8596</v>
+      </c>
+      <c r="V7" s="17">
+        <f>F14</f>
+        <v>10041.767068273093</v>
+      </c>
+      <c r="W7" s="19">
+        <v>9045</v>
+      </c>
+      <c r="Y7" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z7" t="str">
+        <f>I29</f>
+        <v>Golden State Warriors</v>
+      </c>
+      <c r="AA7" s="6" t="str">
+        <f>A29</f>
+        <v>28</v>
+      </c>
+      <c r="AB7" s="7" t="str">
+        <f>B29</f>
+        <v>Patrick Baldwin</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>53</v>
+      </c>
+      <c r="AD7" s="2">
+        <f>D29</f>
+        <v>27.35483870967742</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>44</v>
+      </c>
+      <c r="AF7" s="6">
+        <v>9102</v>
+      </c>
+      <c r="AG7" s="2">
+        <f>F29</f>
+        <v>11210.13698630137</v>
+      </c>
+      <c r="AH7" s="9">
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" t="str">
+        <f>'[4]2022 Drafts'!$F$10</f>
+        <v>9</v>
+      </c>
+      <c r="B8" t="str">
+        <f>Predictions!A8</f>
+        <v>Jeremy Sochan</v>
+      </c>
+      <c r="C8" t="str">
+        <f>Predictions!C8</f>
+        <v>San Antonio Spurs</v>
+      </c>
+      <c r="D8" s="2">
+        <f>Predictions!G8</f>
+        <v>24.892857142857142</v>
+      </c>
+      <c r="E8" s="2">
+        <f>Predictions!H8</f>
+        <v>57.107142857142861</v>
+      </c>
+      <c r="F8" s="2">
+        <f>Predictions!M8</f>
+        <v>10954.807692307693</v>
+      </c>
+      <c r="H8" t="str">
+        <f>'[3]2022-23 Stats'!A$30</f>
+        <v>28</v>
+      </c>
+      <c r="I8" t="str">
+        <f>'[3]2022-23 Stats'!B$30</f>
+        <v>San Antonio Spurs</v>
+      </c>
+      <c r="J8" t="str">
+        <f>'[3]2022-23 Stats'!C$30</f>
+        <v>22</v>
+      </c>
+      <c r="K8" t="str">
+        <f>'[3]2022-23 Stats'!D$30</f>
+        <v>60</v>
+      </c>
+      <c r="L8" t="str">
+        <f>'[3]2022-23 Stats'!E$30</f>
+        <v>9269</v>
+      </c>
+      <c r="Y8" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z8" t="str">
+        <f>I42</f>
+        <v>Golden State Warriors</v>
+      </c>
+      <c r="AA8" s="6" t="str">
+        <f>A42</f>
+        <v>44</v>
+      </c>
+      <c r="AB8" s="7" t="str">
+        <f>B42</f>
+        <v>Ryan Rollins</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>53</v>
+      </c>
+      <c r="AD8" s="2">
+        <f>D42</f>
+        <v>30.916666666666664</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>44</v>
+      </c>
+      <c r="AF8" s="8">
+        <v>9102</v>
+      </c>
+      <c r="AG8" s="2">
+        <f>F42</f>
+        <v>10543.807692307691</v>
+      </c>
+      <c r="AH8" s="9">
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" t="str">
+        <f>'[4]2022 Drafts'!$F$21</f>
+        <v>20</v>
+      </c>
+      <c r="B9" t="str">
+        <f>Predictions!A9</f>
+        <v>Malaki Branham</v>
+      </c>
+      <c r="C9" t="str">
+        <f>Predictions!C9</f>
+        <v>San Antonio Spurs</v>
+      </c>
+      <c r="D9" s="2">
+        <f>Predictions!G9</f>
+        <v>26.27272727272727</v>
+      </c>
+      <c r="E9" s="2">
+        <f>Predictions!H9</f>
+        <v>55.727272727272734</v>
+      </c>
+      <c r="F9" s="2">
+        <f>Predictions!M9</f>
+        <v>10998.242553191491</v>
+      </c>
+      <c r="H9" t="str">
+        <f>'[3]2022-23 Stats'!A$30</f>
+        <v>28</v>
+      </c>
+      <c r="I9" t="str">
+        <f>'[3]2022-23 Stats'!B$30</f>
+        <v>San Antonio Spurs</v>
+      </c>
+      <c r="J9" t="str">
+        <f>'[3]2022-23 Stats'!C$30</f>
+        <v>22</v>
+      </c>
+      <c r="K9" t="str">
+        <f>'[3]2022-23 Stats'!D$30</f>
+        <v>60</v>
+      </c>
+      <c r="L9" t="str">
+        <f>'[3]2022-23 Stats'!E$30</f>
+        <v>9269</v>
+      </c>
+      <c r="Y9" s="6">
+        <v>3</v>
+      </c>
+      <c r="Z9" t="str">
+        <f>I22</f>
+        <v>Miami Heat</v>
+      </c>
+      <c r="AA9" s="6" t="str">
+        <f>A22</f>
+        <v>27</v>
+      </c>
+      <c r="AB9" s="7" t="str">
+        <f>B22</f>
+        <v>Nikola Jovic</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>53</v>
+      </c>
+      <c r="AD9" s="2">
+        <f>D22</f>
+        <v>28.266666666666666</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>44</v>
+      </c>
+      <c r="AF9" s="8">
+        <v>9022</v>
+      </c>
+      <c r="AG9" s="2">
+        <f>F22</f>
+        <v>10627.919117647058</v>
+      </c>
+      <c r="AH9" s="9">
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" t="str">
+        <f>'[4]2022 Drafts'!$F$8</f>
+        <v>7</v>
+      </c>
+      <c r="B10" t="str">
+        <f>Predictions!A10</f>
+        <v>Shaedon Sharpe</v>
+      </c>
+      <c r="C10" t="str">
+        <f>Predictions!C10</f>
+        <v>Portland Trail Blazers</v>
+      </c>
+      <c r="D10" s="2">
+        <f>Predictions!G10</f>
+        <v>37.800000000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <f>Predictions!H10</f>
+        <v>44.199999999999996</v>
+      </c>
+      <c r="F10" s="2">
+        <f>Predictions!M10</f>
+        <v>10470.702702702703</v>
+      </c>
+      <c r="H10" t="str">
+        <f>'[3]2022-23 Stats'!A$27</f>
+        <v>26</v>
+      </c>
+      <c r="I10" t="str">
+        <f>'[3]2022-23 Stats'!B$27</f>
+        <v>Portland Trail Blazers</v>
+      </c>
+      <c r="J10" t="str">
+        <f>'[3]2022-23 Stats'!C$27</f>
+        <v>33</v>
+      </c>
+      <c r="K10" t="str">
+        <f>'[3]2022-23 Stats'!D$27</f>
+        <v>49</v>
+      </c>
+      <c r="L10" t="str">
+        <f>'[3]2022-23 Stats'!E$27</f>
+        <v>9299</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="Y10" s="15">
+        <v>5</v>
+      </c>
+      <c r="Z10" s="21" t="str">
+        <f>I17</f>
+        <v>Dallas Mavericks</v>
+      </c>
+      <c r="AA10" s="15" t="str">
+        <f>A17</f>
+        <v>37</v>
+      </c>
+      <c r="AB10" s="16" t="str">
+        <f>B17</f>
+        <v>Jaden Hardy</v>
+      </c>
+      <c r="AC10" s="15">
+        <v>52</v>
+      </c>
+      <c r="AD10" s="17">
+        <f>D17</f>
+        <v>30.333333333333336</v>
+      </c>
+      <c r="AE10" s="19">
+        <v>38</v>
+      </c>
+      <c r="AF10" s="18">
+        <v>8858</v>
+      </c>
+      <c r="AG10" s="17">
+        <f>F17</f>
+        <v>11207.243243243245</v>
+      </c>
+      <c r="AH10" s="19">
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" t="str">
+        <f>'[4]2022 Drafts'!$F$32</f>
+        <v>31</v>
+      </c>
+      <c r="B11" t="str">
+        <f>Predictions!A11</f>
+        <v>Andrew Nembhard</v>
+      </c>
+      <c r="C11" t="str">
+        <f>Predictions!C11</f>
+        <v>Indiana Pacers</v>
+      </c>
+      <c r="D11" s="2">
+        <f>Predictions!G11</f>
+        <v>35.666666666666664</v>
+      </c>
+      <c r="E11" s="2">
+        <f>Predictions!H11</f>
+        <v>46.333333333333336</v>
+      </c>
+      <c r="F11" s="2">
+        <f>Predictions!M11</f>
+        <v>10508.550724637682</v>
+      </c>
+      <c r="H11" t="str">
+        <f>'[3]2022-23 Stats'!A$24</f>
+        <v>23</v>
+      </c>
+      <c r="I11" t="str">
+        <f>'[3]2022-23 Stats'!B$24</f>
+        <v>Indiana Pacers</v>
+      </c>
+      <c r="J11" t="str">
+        <f>'[3]2022-23 Stats'!C$24</f>
+        <v>35</v>
+      </c>
+      <c r="K11" t="str">
+        <f>'[3]2022-23 Stats'!D$24</f>
+        <v>47</v>
+      </c>
+      <c r="L11" t="str">
+        <f>'[3]2022-23 Stats'!E$24</f>
+        <v>9535</v>
+      </c>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" t="str">
+        <f>'[4]2022 Drafts'!$F$18</f>
+        <v>17</v>
+      </c>
+      <c r="B12" t="str">
+        <f>Predictions!A12</f>
+        <v>Tari Eason</v>
+      </c>
+      <c r="C12" t="str">
+        <f>Predictions!C12</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="D12" s="2">
+        <f>Predictions!G12</f>
+        <v>25.365853658536587</v>
+      </c>
+      <c r="E12" s="2">
+        <f>Predictions!H12</f>
+        <v>56.634146341463413</v>
+      </c>
+      <c r="F12" s="2">
+        <f>Predictions!M12</f>
+        <v>10698.125</v>
+      </c>
+      <c r="H12" t="str">
+        <f>'[3]2022-23 Stats'!A$29</f>
+        <v>28</v>
+      </c>
+      <c r="I12" t="str">
+        <f>'[3]2022-23 Stats'!B$29</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="J12" t="str">
+        <f>'[3]2022-23 Stats'!C$29</f>
+        <v>22</v>
+      </c>
+      <c r="K12" t="str">
+        <f>'[3]2022-23 Stats'!D$29</f>
+        <v>60</v>
+      </c>
+      <c r="L12" t="str">
+        <f>'[3]2022-23 Stats'!E$29</f>
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" t="str">
+        <f>'[4]2022 Drafts'!$F$23</f>
+        <v>22</v>
+      </c>
+      <c r="B13" t="str">
+        <f>Predictions!A13</f>
+        <v>Walker Kessler</v>
+      </c>
+      <c r="C13" t="str">
+        <f>Predictions!C13</f>
+        <v>Utah Jazz</v>
+      </c>
+      <c r="D13" s="2">
+        <f>Predictions!G13</f>
+        <v>26.486486486486481</v>
+      </c>
+      <c r="E13" s="2">
+        <f>Predictions!H13</f>
+        <v>55.513513513513516</v>
+      </c>
+      <c r="F13" s="2">
+        <f>Predictions!M13</f>
+        <v>10894.4</v>
+      </c>
+      <c r="H13" t="str">
+        <f>'[3]2022-23 Stats'!A$23</f>
+        <v>22</v>
+      </c>
+      <c r="I13" t="str">
+        <f>'[3]2022-23 Stats'!B$23</f>
+        <v>Utah Jazz</v>
+      </c>
+      <c r="J13" t="str">
+        <f>'[3]2022-23 Stats'!C$23</f>
+        <v>37</v>
+      </c>
+      <c r="K13" t="str">
+        <f>'[3]2022-23 Stats'!D$23</f>
+        <v>45</v>
+      </c>
+      <c r="L13" t="str">
+        <f>'[3]2022-23 Stats'!E$23</f>
+        <v>9600</v>
+      </c>
+      <c r="T13" s="2"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" t="str">
+        <f>'[4]2022 Drafts'!$F$14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" t="str">
+        <f>Predictions!A14</f>
+        <v>Jalen Duren</v>
+      </c>
+      <c r="C14" t="str">
+        <f>Predictions!C14</f>
+        <v>Detroit Pistons</v>
+      </c>
+      <c r="D14" s="2">
+        <f>Predictions!G14</f>
+        <v>17.507462686567166</v>
+      </c>
+      <c r="E14" s="2">
+        <f>Predictions!H14</f>
+        <v>64.492537313432834</v>
+      </c>
+      <c r="F14" s="2">
+        <f>Predictions!M14</f>
+        <v>10041.767068273093</v>
+      </c>
+      <c r="H14" t="str">
+        <f>'[3]2022-23 Stats'!A$31</f>
+        <v>30</v>
+      </c>
+      <c r="I14" t="str">
+        <f>'[3]2022-23 Stats'!B$31</f>
+        <v>Detroit Pistons</v>
+      </c>
+      <c r="J14" t="str">
+        <f>'[3]2022-23 Stats'!C$31</f>
+        <v>17</v>
+      </c>
+      <c r="K14" t="str">
+        <f>'[3]2022-23 Stats'!D$31</f>
+        <v>65</v>
+      </c>
+      <c r="L14" t="str">
+        <f>'[3]2022-23 Stats'!E$31</f>
+        <v>9045</v>
+      </c>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" t="str">
+        <f>'[4]2022 Drafts'!$F$16</f>
+        <v>15</v>
+      </c>
+      <c r="B15" t="str">
+        <f>Predictions!A15</f>
+        <v>Mark Williams</v>
+      </c>
+      <c r="C15" t="str">
+        <f>Predictions!C15</f>
+        <v>Charlotte Hornets</v>
+      </c>
+      <c r="D15" s="2">
+        <f>Predictions!G15</f>
+        <v>25</v>
+      </c>
+      <c r="E15" s="2">
+        <f>Predictions!H15</f>
+        <v>57</v>
+      </c>
+      <c r="F15" s="2">
+        <f>Predictions!M15</f>
+        <v>11311.093264248704</v>
+      </c>
+      <c r="H15" t="str">
+        <f>'[3]2022-23 Stats'!A$28</f>
+        <v>27</v>
+      </c>
+      <c r="I15" t="str">
+        <f>'[3]2022-23 Stats'!B$28</f>
+        <v>Charlotte Hornets</v>
+      </c>
+      <c r="J15" t="str">
+        <f>'[3]2022-23 Stats'!C$28</f>
+        <v>27</v>
+      </c>
+      <c r="K15" t="str">
+        <f>'[3]2022-23 Stats'!D$28</f>
+        <v>55</v>
+      </c>
+      <c r="L15" t="str">
+        <f>'[3]2022-23 Stats'!E$28</f>
+        <v>9098</v>
+      </c>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" t="str">
+        <f>'[4]2022 Drafts'!$F$17</f>
+        <v>16</v>
+      </c>
+      <c r="B16" t="str">
+        <f>Predictions!A16</f>
+        <v>AJ Griffin</v>
+      </c>
+      <c r="C16" t="str">
+        <f>Predictions!C16</f>
+        <v>Atlanta Hawks</v>
+      </c>
+      <c r="D16" s="2">
+        <f>Predictions!G16</f>
+        <v>22.69444444444445</v>
+      </c>
+      <c r="E16" s="2">
+        <f>Predictions!H16</f>
+        <v>59.30555555555555</v>
+      </c>
+      <c r="F16" s="2">
+        <f>Predictions!M16</f>
+        <v>11141.712820512821</v>
+      </c>
+      <c r="H16" t="str">
+        <f>'[3]2022-23 Stats'!A$18</f>
+        <v>17</v>
+      </c>
+      <c r="I16" t="str">
+        <f>'[3]2022-23 Stats'!B$18</f>
+        <v>Atlanta Hawks</v>
+      </c>
+      <c r="J16" t="str">
+        <f>'[3]2022-23 Stats'!C$18</f>
+        <v>41</v>
+      </c>
+      <c r="K16" t="str">
+        <f>'[3]2022-23 Stats'!D$18</f>
+        <v>41</v>
+      </c>
+      <c r="L16" t="str">
+        <f>'[3]2022-23 Stats'!E$18</f>
+        <v>9711</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" t="str">
+        <f>'[4]2022 Drafts'!$F$38</f>
+        <v>37</v>
+      </c>
+      <c r="B17" t="str">
+        <f>Predictions!A17</f>
+        <v>Jaden Hardy</v>
+      </c>
+      <c r="C17" t="str">
+        <f>Predictions!C17</f>
+        <v>Dallas Mavericks</v>
+      </c>
+      <c r="D17" s="2">
+        <f>Predictions!G17</f>
+        <v>30.333333333333336</v>
+      </c>
+      <c r="E17" s="2">
+        <f>Predictions!H17</f>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="F17" s="2">
+        <f>Predictions!M17</f>
+        <v>11207.243243243245</v>
+      </c>
+      <c r="H17" t="str">
+        <f>'[3]2022-23 Stats'!A$22</f>
+        <v>21</v>
+      </c>
+      <c r="I17" t="str">
+        <f>'[3]2022-23 Stats'!B$22</f>
+        <v>Dallas Mavericks</v>
+      </c>
+      <c r="J17" t="str">
+        <f>'[3]2022-23 Stats'!C$22</f>
+        <v>38</v>
+      </c>
+      <c r="K17" t="str">
+        <f>'[3]2022-23 Stats'!D$22</f>
+        <v>44</v>
+      </c>
+      <c r="L17" t="str">
+        <f>'[3]2022-23 Stats'!E$22</f>
+        <v>9366</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" t="str">
+        <f>'[4]2022 Drafts'!$F$15</f>
+        <v>14</v>
+      </c>
+      <c r="B18" t="str">
+        <f>Predictions!A18</f>
+        <v>Ochai Agbaji</v>
+      </c>
+      <c r="C18" t="str">
+        <f>Predictions!C18</f>
+        <v>Utah Jazz</v>
+      </c>
+      <c r="D18" s="2">
+        <f>Predictions!G18</f>
+        <v>24.915254237288135</v>
+      </c>
+      <c r="E18" s="2">
+        <f>Predictions!H18</f>
+        <v>57.084745762711862</v>
+      </c>
+      <c r="F18" s="2">
+        <f>Predictions!M18</f>
+        <v>10836.653658536585</v>
+      </c>
+      <c r="H18" t="str">
+        <f>'[3]2022-23 Stats'!A$23</f>
+        <v>22</v>
+      </c>
+      <c r="I18" t="str">
+        <f>'[3]2022-23 Stats'!B$23</f>
+        <v>Utah Jazz</v>
+      </c>
+      <c r="J18" t="str">
+        <f>'[3]2022-23 Stats'!C$23</f>
+        <v>37</v>
+      </c>
+      <c r="K18" t="str">
+        <f>'[3]2022-23 Stats'!D$23</f>
+        <v>45</v>
+      </c>
+      <c r="L18" t="str">
+        <f>'[3]2022-23 Stats'!E$23</f>
+        <v>9600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" t="str">
+        <f>'[4]2022 Drafts'!$F$24</f>
+        <v>23</v>
+      </c>
+      <c r="B19" t="str">
+        <f>Predictions!A19</f>
+        <v>David Roddy</v>
+      </c>
+      <c r="C19" t="str">
+        <f>Predictions!C19</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="D19" s="2">
+        <f>Predictions!G19</f>
+        <v>20.8</v>
+      </c>
+      <c r="E19" s="2">
+        <f>Predictions!H19</f>
+        <v>61.2</v>
+      </c>
+      <c r="F19" s="2">
+        <f>Predictions!M19</f>
+        <v>10952.511111111113</v>
+      </c>
+      <c r="H19" t="str">
+        <f>'[3]2022-23 Stats'!A$7</f>
+        <v>5</v>
+      </c>
+      <c r="I19" t="str">
+        <f>'[3]2022-23 Stats'!B$7</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="J19" t="str">
+        <f>'[3]2022-23 Stats'!C$7</f>
+        <v>51</v>
+      </c>
+      <c r="K19" t="str">
+        <f>'[3]2022-23 Stats'!D$7</f>
+        <v>31</v>
+      </c>
+      <c r="L19" t="str">
+        <f>'[3]2022-23 Stats'!E$7</f>
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" t="str">
+        <f>'[4]2022 Drafts'!$F$35</f>
+        <v>34</v>
+      </c>
+      <c r="B20" t="str">
+        <f>Predictions!A20</f>
+        <v>Jaylin Williams</v>
+      </c>
+      <c r="C20" t="str">
+        <f>Predictions!C20</f>
+        <v>Oklahoma City Thunder</v>
+      </c>
+      <c r="D20" s="2">
+        <f>Predictions!G20</f>
+        <v>35.265306122448983</v>
+      </c>
+      <c r="E20" s="2">
+        <f>Predictions!H20</f>
+        <v>46.734693877551017</v>
+      </c>
+      <c r="F20" s="2">
+        <f>Predictions!M20</f>
+        <v>9755.7272727272721</v>
+      </c>
+      <c r="H20" t="str">
+        <f>'[3]2022-23 Stats'!A$21</f>
+        <v>19</v>
+      </c>
+      <c r="I20" t="str">
+        <f>'[3]2022-23 Stats'!B$21</f>
+        <v>Oklahoma City Thunder</v>
+      </c>
+      <c r="J20" t="str">
+        <f>'[3]2022-23 Stats'!C$21</f>
+        <v>40</v>
+      </c>
+      <c r="K20" t="str">
+        <f>'[3]2022-23 Stats'!D$21</f>
+        <v>42</v>
+      </c>
+      <c r="L20" t="str">
+        <f>'[3]2022-23 Stats'!E$21</f>
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" t="str">
+        <f>'[4]2022 Drafts'!$F$11</f>
+        <v>10</v>
+      </c>
+      <c r="B21" t="str">
+        <f>Predictions!A21</f>
+        <v>Johnny Davis</v>
+      </c>
+      <c r="C21" t="str">
+        <f>Predictions!C21</f>
+        <v>Washington Wizards</v>
+      </c>
+      <c r="D21" s="2">
+        <f>Predictions!G21</f>
+        <v>22.5</v>
+      </c>
+      <c r="E21" s="2">
+        <f>Predictions!H21</f>
+        <v>59.5</v>
+      </c>
+      <c r="F21" s="2">
+        <f>Predictions!M21</f>
+        <v>10430.364238410597</v>
+      </c>
+      <c r="H21" t="str">
+        <f>'[3]2022-23 Stats'!A$25</f>
+        <v>23</v>
+      </c>
+      <c r="I21" t="str">
+        <f>'[3]2022-23 Stats'!B$25</f>
+        <v>Washington Wizards</v>
+      </c>
+      <c r="J21" t="str">
+        <f>'[3]2022-23 Stats'!C$25</f>
+        <v>35</v>
+      </c>
+      <c r="K21" t="str">
+        <f>'[3]2022-23 Stats'!D$25</f>
+        <v>47</v>
+      </c>
+      <c r="L21" t="str">
+        <f>'[3]2022-23 Stats'!E$25</f>
+        <v>9279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" t="str">
+        <f>'[4]2022 Drafts'!$F$28</f>
+        <v>27</v>
+      </c>
+      <c r="B22" t="str">
+        <f>Predictions!A22</f>
+        <v>Nikola Jovic</v>
+      </c>
+      <c r="C22" t="str">
+        <f>Predictions!C22</f>
+        <v>Miami Heat</v>
+      </c>
+      <c r="D22" s="2">
+        <f>Predictions!G22</f>
+        <v>28.266666666666666</v>
+      </c>
+      <c r="E22" s="2">
+        <f>Predictions!H22</f>
+        <v>53.733333333333334</v>
+      </c>
+      <c r="F22" s="2">
+        <f>Predictions!M22</f>
+        <v>10627.919117647058</v>
+      </c>
+      <c r="H22" t="str">
+        <f>'[3]2022-23 Stats'!A$14</f>
+        <v>11</v>
+      </c>
+      <c r="I22" t="str">
+        <f>'[3]2022-23 Stats'!B$14</f>
+        <v>Miami Heat</v>
+      </c>
+      <c r="J22" t="str">
+        <f>'[3]2022-23 Stats'!C$14</f>
+        <v>44</v>
+      </c>
+      <c r="K22" t="str">
+        <f>'[3]2022-23 Stats'!D$14</f>
+        <v>38</v>
+      </c>
+      <c r="L22" t="str">
+        <f>'[3]2022-23 Stats'!E$14</f>
+        <v>8977</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" t="str">
+        <f>'[4]2022 Drafts'!$F$41</f>
+        <v>40</v>
+      </c>
+      <c r="B23" t="str">
+        <f>Predictions!A23</f>
+        <v>Bryce McGowens</v>
+      </c>
+      <c r="C23" t="str">
+        <f>Predictions!C23</f>
+        <v>Charlotte Hornets</v>
+      </c>
+      <c r="D23" s="2">
+        <f>Predictions!G23</f>
+        <v>28.043478260869566</v>
+      </c>
+      <c r="E23" s="2">
+        <f>Predictions!H23</f>
+        <v>53.956521739130437</v>
+      </c>
+      <c r="F23" s="2">
+        <f>Predictions!M23</f>
+        <v>10689.327485380118</v>
+      </c>
+      <c r="H23" t="str">
+        <f>'[3]2022-23 Stats'!A$28</f>
+        <v>27</v>
+      </c>
+      <c r="I23" t="str">
+        <f>'[3]2022-23 Stats'!B$28</f>
+        <v>Charlotte Hornets</v>
+      </c>
+      <c r="J23" t="str">
+        <f>'[3]2022-23 Stats'!C$28</f>
+        <v>27</v>
+      </c>
+      <c r="K23" t="str">
+        <f>'[3]2022-23 Stats'!D$28</f>
+        <v>55</v>
+      </c>
+      <c r="L23" t="str">
+        <f>'[3]2022-23 Stats'!E$28</f>
+        <v>9098</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" t="str">
+        <f>'[4]2022 Drafts'!$F$25</f>
+        <v>24</v>
+      </c>
+      <c r="B24" t="str">
+        <f>Predictions!A24</f>
+        <v>MarJon Beauchamp</v>
+      </c>
+      <c r="C24" t="str">
+        <f>Predictions!C24</f>
+        <v>Milwaukee Bucks</v>
+      </c>
+      <c r="D24" s="2">
+        <f>Predictions!G24</f>
+        <v>84.34615384615384</v>
+      </c>
+      <c r="E24" s="2">
+        <f>Predictions!H24</f>
+        <v>-2.3461538461538396</v>
+      </c>
+      <c r="F24" s="2">
+        <f>Predictions!M24</f>
+        <v>10962.6</v>
+      </c>
+      <c r="H24" t="str">
+        <f>'[3]2022-23 Stats'!A$2</f>
+        <v>1</v>
+      </c>
+      <c r="I24" t="str">
+        <f>'[3]2022-23 Stats'!B$2</f>
+        <v>Milwaukee Bucks</v>
+      </c>
+      <c r="J24" t="str">
+        <f>'[3]2022-23 Stats'!C$2</f>
+        <v>58</v>
+      </c>
+      <c r="K24" t="str">
+        <f>'[3]2022-23 Stats'!D$2</f>
+        <v>24</v>
+      </c>
+      <c r="L24" t="str">
+        <f>'[3]2022-23 Stats'!E$2</f>
+        <v>9589</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" t="str">
+        <f>'[4]2022 Drafts'!$F$26</f>
+        <v>25</v>
+      </c>
+      <c r="B25" t="str">
+        <f>Predictions!A25</f>
+        <v>Blake Wesley</v>
+      </c>
+      <c r="C25" t="str">
+        <f>Predictions!C25</f>
+        <v>San Antonio Spurs</v>
+      </c>
+      <c r="D25" s="2">
+        <f>Predictions!G25</f>
+        <v>25.72972972972973</v>
+      </c>
+      <c r="E25" s="2">
+        <f>Predictions!H25</f>
+        <v>56.270270270270274</v>
+      </c>
+      <c r="F25" s="2">
+        <f>Predictions!M25</f>
+        <v>10373.198895027625</v>
+      </c>
+      <c r="H25" t="str">
+        <f>'[3]2022-23 Stats'!A$30</f>
+        <v>28</v>
+      </c>
+      <c r="I25" t="str">
+        <f>'[3]2022-23 Stats'!B$30</f>
+        <v>San Antonio Spurs</v>
+      </c>
+      <c r="J25" t="str">
+        <f>'[3]2022-23 Stats'!C$30</f>
+        <v>22</v>
+      </c>
+      <c r="K25" t="str">
+        <f>'[3]2022-23 Stats'!D$30</f>
+        <v>60</v>
+      </c>
+      <c r="L25" t="str">
+        <f>'[3]2022-23 Stats'!E$30</f>
+        <v>9269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" t="str">
+        <f>'[4]2022 Drafts'!$F$12</f>
+        <v>11</v>
+      </c>
+      <c r="B26" t="str">
+        <f>Predictions!A26</f>
+        <v>Ousmane Dieng</v>
+      </c>
+      <c r="C26" t="str">
+        <f>Predictions!C26</f>
+        <v>Oklahoma City Thunder</v>
+      </c>
+      <c r="D26" s="2">
+        <f>Predictions!G26</f>
+        <v>36.307692307692299</v>
+      </c>
+      <c r="E26" s="2">
+        <f>Predictions!H26</f>
+        <v>45.692307692307701</v>
+      </c>
+      <c r="F26" s="2">
+        <f>Predictions!M26</f>
+        <v>9835.3767123287671</v>
+      </c>
+      <c r="H26" t="str">
+        <f>'[3]2022-23 Stats'!A$21</f>
+        <v>19</v>
+      </c>
+      <c r="I26" t="str">
+        <f>'[3]2022-23 Stats'!B$21</f>
+        <v>Oklahoma City Thunder</v>
+      </c>
+      <c r="J26" t="str">
+        <f>'[3]2022-23 Stats'!C$21</f>
+        <v>40</v>
+      </c>
+      <c r="K26" t="str">
+        <f>'[3]2022-23 Stats'!D$21</f>
+        <v>42</v>
+      </c>
+      <c r="L26" t="str">
+        <f>'[3]2022-23 Stats'!E$21</f>
+        <v>9633</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" t="str">
+        <f>'[4]2022 Drafts'!$F$22</f>
+        <v>21</v>
+      </c>
+      <c r="B27" t="str">
+        <f>Predictions!A27</f>
+        <v>Christian Braun</v>
+      </c>
+      <c r="C27" t="str">
+        <f>Predictions!C27</f>
+        <v>Denver Nuggets</v>
+      </c>
+      <c r="D27" s="2">
+        <f>Predictions!G27</f>
+        <v>78.947368421052616</v>
+      </c>
+      <c r="E27" s="2">
+        <f>Predictions!H27</f>
+        <v>3.0526315789473841</v>
+      </c>
+      <c r="F27" s="2">
+        <f>Predictions!M27</f>
+        <v>10444.077419354839</v>
+      </c>
+      <c r="H27" t="str">
+        <f>'[3]2022-23 Stats'!A$5</f>
+        <v>4</v>
+      </c>
+      <c r="I27" t="str">
+        <f>'[3]2022-23 Stats'!B$5</f>
+        <v>Denver Nuggets</v>
+      </c>
+      <c r="J27" t="str">
+        <f>'[3]2022-23 Stats'!C$5</f>
+        <v>53</v>
+      </c>
+      <c r="K27" t="str">
+        <f>'[3]2022-23 Stats'!D$5</f>
+        <v>29</v>
+      </c>
+      <c r="L27" t="str">
+        <f>'[3]2022-23 Stats'!E$5</f>
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" t="str">
+        <f>'[4]2022 Drafts'!$F$30</f>
+        <v>29</v>
+      </c>
+      <c r="B28" t="str">
+        <f>Predictions!A28</f>
+        <v>TyTy Washington Jr.</v>
+      </c>
+      <c r="C28" t="str">
+        <f>Predictions!C28</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="D28" s="2">
+        <f>Predictions!G28</f>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="E28" s="2">
+        <f>Predictions!H28</f>
+        <v>65.870967741935488</v>
+      </c>
+      <c r="F28" s="2">
+        <f>Predictions!M28</f>
+        <v>10323.407142857144</v>
+      </c>
+      <c r="H28" t="str">
+        <f>'[3]2022-23 Stats'!A$29</f>
+        <v>28</v>
+      </c>
+      <c r="I28" t="str">
+        <f>'[3]2022-23 Stats'!B$29</f>
+        <v>Houston Rockets</v>
+      </c>
+      <c r="J28" t="str">
+        <f>'[3]2022-23 Stats'!C$29</f>
+        <v>22</v>
+      </c>
+      <c r="K28" t="str">
+        <f>'[3]2022-23 Stats'!D$29</f>
+        <v>60</v>
+      </c>
+      <c r="L28" t="str">
+        <f>'[3]2022-23 Stats'!E$29</f>
+        <v>9081</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" t="str">
+        <f>'[4]2022 Drafts'!$F$29</f>
+        <v>28</v>
+      </c>
+      <c r="B29" t="str">
+        <f>Predictions!A29</f>
+        <v>Patrick Baldwin</v>
+      </c>
+      <c r="C29" t="str">
+        <f>Predictions!C29</f>
+        <v>Golden State Warriors</v>
+      </c>
+      <c r="D29" s="2">
+        <f>Predictions!G29</f>
+        <v>27.35483870967742</v>
+      </c>
+      <c r="E29" s="2">
+        <f>Predictions!H29</f>
+        <v>54.645161290322577</v>
+      </c>
+      <c r="F29" s="2">
+        <f>Predictions!M29</f>
+        <v>11210.13698630137</v>
+      </c>
+      <c r="H29" t="str">
+        <f>'[3]2022-23 Stats'!A$12</f>
+        <v>11</v>
+      </c>
+      <c r="I29" t="str">
+        <f>'[3]2022-23 Stats'!B$12</f>
+        <v>Golden State Warriors</v>
+      </c>
+      <c r="J29" t="str">
+        <f>'[3]2022-23 Stats'!C$12</f>
+        <v>44</v>
+      </c>
+      <c r="K29" t="str">
+        <f>'[3]2022-23 Stats'!D$12</f>
+        <v>38</v>
+      </c>
+      <c r="L29" t="str">
+        <f>'[3]2022-23 Stats'!E$12</f>
+        <v>9753</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" t="str">
+        <f>'[4]2022 Drafts'!$F$9</f>
+        <v>8</v>
+      </c>
+      <c r="B30" t="str">
+        <f>Predictions!A30</f>
+        <v>Dyson Daniels</v>
+      </c>
+      <c r="C30" t="str">
+        <f>Predictions!C30</f>
+        <v>New Orleans Pelicans</v>
+      </c>
+      <c r="D30" s="2">
+        <f>Predictions!G30</f>
+        <v>56.135593220338976</v>
+      </c>
+      <c r="E30" s="2">
+        <f>Predictions!H30</f>
+        <v>25.864406779661024</v>
+      </c>
+      <c r="F30" s="2">
+        <f>Predictions!M30</f>
+        <v>9810.2372881355932</v>
+      </c>
+      <c r="H30" t="str">
+        <f>'[3]2022-23 Stats'!A$17</f>
+        <v>15</v>
+      </c>
+      <c r="I30" t="str">
+        <f>'[3]2022-23 Stats'!B$17</f>
+        <v>New Orleans Pelicans</v>
+      </c>
+      <c r="J30" t="str">
+        <f>'[3]2022-23 Stats'!C$17</f>
+        <v>42</v>
+      </c>
+      <c r="K30" t="str">
+        <f>'[3]2022-23 Stats'!D$17</f>
+        <v>40</v>
+      </c>
+      <c r="L30" t="str">
+        <f>'[3]2022-23 Stats'!E$17</f>
+        <v>9378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" t="str">
+        <f>'[4]2022 Drafts'!$F$33</f>
+        <v>32</v>
+      </c>
+      <c r="B31" t="str">
+        <f>Predictions!A31</f>
+        <v>Caleb Houstan</v>
+      </c>
+      <c r="C31" t="str">
+        <f>Predictions!C31</f>
+        <v>Orlando Magic</v>
+      </c>
+      <c r="D31" s="2">
+        <f>Predictions!G31</f>
+        <v>30.627450980392158</v>
+      </c>
+      <c r="E31" s="2">
+        <f>Predictions!H31</f>
+        <v>51.372549019607845</v>
+      </c>
+      <c r="F31" s="2">
+        <f>Predictions!M31</f>
+        <v>9492.4591194968561</v>
+      </c>
+      <c r="H31" t="str">
+        <f>'[3]2022-23 Stats'!A$26</f>
+        <v>25</v>
+      </c>
+      <c r="I31" t="str">
+        <f>'[3]2022-23 Stats'!B$26</f>
+        <v>Orlando Magic</v>
+      </c>
+      <c r="J31" t="str">
+        <f>'[3]2022-23 Stats'!C$26</f>
+        <v>34</v>
+      </c>
+      <c r="K31" t="str">
+        <f>'[3]2022-23 Stats'!D$26</f>
+        <v>48</v>
+      </c>
+      <c r="L31" t="str">
+        <f>'[3]2022-23 Stats'!E$26</f>
+        <v>9136</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" t="str">
+        <f>'[4]2022 Drafts'!$F$31</f>
+        <v>30</v>
+      </c>
+      <c r="B32" t="str">
+        <f>Predictions!A32</f>
+        <v>Peyton Watson</v>
+      </c>
+      <c r="C32" t="str">
+        <f>Predictions!C32</f>
+        <v>Denver Nuggets</v>
+      </c>
+      <c r="D32" s="2">
+        <f>Predictions!G32</f>
+        <v>20.869565217391308</v>
+      </c>
+      <c r="E32" s="2">
+        <f>Predictions!H32</f>
+        <v>61.130434782608688</v>
+      </c>
+      <c r="F32" s="2">
+        <f>Predictions!M32</f>
+        <v>10856.740740740741</v>
+      </c>
+      <c r="H32" t="str">
+        <f>'[3]2022-23 Stats'!A$5</f>
+        <v>4</v>
+      </c>
+      <c r="I32" t="str">
+        <f>'[3]2022-23 Stats'!B$5</f>
+        <v>Denver Nuggets</v>
+      </c>
+      <c r="J32" t="str">
+        <f>'[3]2022-23 Stats'!C$5</f>
+        <v>53</v>
+      </c>
+      <c r="K32" t="str">
+        <f>'[3]2022-23 Stats'!D$5</f>
+        <v>29</v>
+      </c>
+      <c r="L32" t="str">
+        <f>'[3]2022-23 Stats'!E$5</f>
+        <v>9495</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" t="str">
+        <f>'[4]2022 Drafts'!$F$34</f>
+        <v>33</v>
+      </c>
+      <c r="B33" t="str">
+        <f>Predictions!A33</f>
+        <v>Christian Koloko</v>
+      </c>
+      <c r="C33" t="str">
+        <f>Predictions!C33</f>
+        <v>Toronto Raptors</v>
+      </c>
+      <c r="D33" s="2">
+        <f>Predictions!G33</f>
+        <v>24</v>
+      </c>
+      <c r="E33" s="2">
+        <f>Predictions!H33</f>
+        <v>58</v>
+      </c>
+      <c r="F33" s="2">
+        <f>Predictions!M33</f>
+        <v>9862.036231884058</v>
+      </c>
+      <c r="H33" t="str">
+        <f>'[3]2022-23 Stats'!A$19</f>
+        <v>17</v>
+      </c>
+      <c r="I33" t="str">
+        <f>'[3]2022-23 Stats'!B$19</f>
+        <v>Toronto Raptors</v>
+      </c>
+      <c r="J33" t="str">
+        <f>'[3]2022-23 Stats'!C$19</f>
+        <v>41</v>
+      </c>
+      <c r="K33" t="str">
+        <f>'[3]2022-23 Stats'!D$19</f>
+        <v>41</v>
+      </c>
+      <c r="L33" t="str">
+        <f>'[3]2022-23 Stats'!E$19</f>
+        <v>9254</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" t="str">
+        <f>'[4]2022 Drafts'!$F$36</f>
+        <v>35</v>
+      </c>
+      <c r="B34" t="str">
+        <f>Predictions!A34</f>
+        <v>Max Christie</v>
+      </c>
+      <c r="C34" t="str">
+        <f>Predictions!C34</f>
+        <v>Los Angeles Lakers</v>
+      </c>
+      <c r="D34" s="2">
+        <f>Predictions!G34</f>
+        <v>48.292682926829272</v>
+      </c>
+      <c r="E34" s="2">
+        <f>Predictions!H34</f>
+        <v>33.707317073170728</v>
+      </c>
+      <c r="F34" s="2">
+        <f>Predictions!M34</f>
+        <v>10183.008</v>
+      </c>
+      <c r="H34" t="str">
+        <f>'[3]2022-23 Stats'!A$15</f>
+        <v>14</v>
+      </c>
+      <c r="I34" t="str">
+        <f>'[3]2022-23 Stats'!B$15</f>
+        <v>Los Angeles Lakers</v>
+      </c>
+      <c r="J34" t="str">
+        <f>'[3]2022-23 Stats'!C$15</f>
+        <v>43</v>
+      </c>
+      <c r="K34" t="str">
+        <f>'[3]2022-23 Stats'!D$15</f>
+        <v>39</v>
+      </c>
+      <c r="L34" t="str">
+        <f>'[3]2022-23 Stats'!E$15</f>
+        <v>9608</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" t="str">
+        <f>'[4]2022 Drafts'!$F$46</f>
+        <v>45</v>
+      </c>
+      <c r="B35" t="str">
+        <f>Predictions!A35</f>
+        <v>Josh Minott</v>
+      </c>
+      <c r="C35" t="str">
+        <f>Predictions!C35</f>
+        <v>Minnesota Timberwolves</v>
+      </c>
+      <c r="D35" s="2">
+        <f>Predictions!G35</f>
+        <v>24.533333333333335</v>
+      </c>
+      <c r="E35" s="2">
+        <f>Predictions!H35</f>
+        <v>57.466666666666669</v>
+      </c>
+      <c r="F35" s="2">
+        <f>Predictions!M35</f>
+        <v>11423.1875</v>
+      </c>
+      <c r="H35" t="str">
+        <f>'[3]2022-23 Stats'!A$16</f>
+        <v>15</v>
+      </c>
+      <c r="I35" t="str">
+        <f>'[3]2022-23 Stats'!B$16</f>
+        <v>Minnesota Timberwolves</v>
+      </c>
+      <c r="J35" t="str">
+        <f>'[3]2022-23 Stats'!C$16</f>
+        <v>42</v>
+      </c>
+      <c r="K35" t="str">
+        <f>'[3]2022-23 Stats'!D$16</f>
+        <v>40</v>
+      </c>
+      <c r="L35" t="str">
+        <f>'[3]2022-23 Stats'!E$16</f>
+        <v>9494</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" t="str">
+        <f>'[4]2022 Drafts'!$F$20</f>
+        <v>19</v>
+      </c>
+      <c r="B36" t="str">
+        <f>Predictions!A36</f>
+        <v>Jake LaRavia</v>
+      </c>
+      <c r="C36" t="str">
+        <f>Predictions!C36</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="D36" s="2">
+        <f>Predictions!G36</f>
+        <v>20.8</v>
+      </c>
+      <c r="E36" s="2">
+        <f>Predictions!H36</f>
+        <v>61.2</v>
+      </c>
+      <c r="F36" s="2">
+        <f>Predictions!M36</f>
+        <v>10485.762711864407</v>
+      </c>
+      <c r="H36" t="str">
+        <f>'[3]2022-23 Stats'!A$7</f>
+        <v>5</v>
+      </c>
+      <c r="I36" t="str">
+        <f>'[3]2022-23 Stats'!B$7</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="J36" t="str">
+        <f>'[3]2022-23 Stats'!C$7</f>
+        <v>51</v>
+      </c>
+      <c r="K36" t="str">
+        <f>'[3]2022-23 Stats'!D$7</f>
+        <v>31</v>
+      </c>
+      <c r="L36" t="str">
+        <f>'[3]2022-23 Stats'!E$7</f>
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" t="str">
+        <f>'[4]2022 Drafts'!$F$44</f>
+        <v>43</v>
+      </c>
+      <c r="B37" t="str">
+        <f>Predictions!A37</f>
+        <v>Moussa Diabate</v>
+      </c>
+      <c r="C37" t="str">
+        <f>Predictions!C37</f>
+        <v>LA Clipplers</v>
+      </c>
+      <c r="D37" s="2">
+        <f>Predictions!G37</f>
+        <v>22.909090909090914</v>
+      </c>
+      <c r="E37" s="2">
+        <f>Predictions!H37</f>
+        <v>59.090909090909086</v>
+      </c>
+      <c r="F37" s="2">
+        <f>Predictions!M37</f>
+        <v>10090.134831460675</v>
+      </c>
+      <c r="H37" t="str">
+        <f>'[3]2022-23 Stats'!A$13</f>
+        <v>11</v>
+      </c>
+      <c r="I37" t="str">
+        <f>'[3]2022-23 Stats'!B$13</f>
+        <v>LA Clippers</v>
+      </c>
+      <c r="J37" t="str">
+        <f>'[3]2022-23 Stats'!C$13</f>
+        <v>44</v>
+      </c>
+      <c r="K37" t="str">
+        <f>'[3]2022-23 Stats'!D$13</f>
+        <v>38</v>
+      </c>
+      <c r="L37" t="str">
+        <f>'[3]2022-23 Stats'!E$13</f>
+        <v>9314</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" t="str">
+        <f>'[4]2022 Drafts'!$F$50</f>
+        <v>49</v>
+      </c>
+      <c r="B38" t="str">
+        <f>Predictions!A38</f>
+        <v>Isaiah Mobley</v>
+      </c>
+      <c r="C38" t="str">
+        <f>Predictions!C38</f>
+        <v>Cleveland Cavaliers</v>
+      </c>
+      <c r="D38" s="2">
+        <f>Predictions!G38</f>
+        <v>73.333333333333329</v>
+      </c>
+      <c r="E38" s="2">
+        <f>Predictions!H38</f>
+        <v>8.6666666666666714</v>
+      </c>
+      <c r="F38" s="2">
+        <f>Predictions!M38</f>
+        <v>10304.657142857144</v>
+      </c>
+      <c r="H38" t="str">
+        <f>'[3]2022-23 Stats'!A$6</f>
+        <v>5</v>
+      </c>
+      <c r="I38" t="str">
+        <f>'[3]2022-23 Stats'!B$6</f>
+        <v>Cleveland Cavaliers</v>
+      </c>
+      <c r="J38" t="str">
+        <f>'[3]2022-23 Stats'!C$6</f>
+        <v>51</v>
+      </c>
+      <c r="K38" t="str">
+        <f>'[3]2022-23 Stats'!D$6</f>
+        <v>31</v>
+      </c>
+      <c r="L38" t="str">
+        <f>'[3]2022-23 Stats'!E$6</f>
+        <v>9205</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" t="str">
+        <f>'[4]2022 Drafts'!$F$19</f>
+        <v>18</v>
+      </c>
+      <c r="B39" t="str">
+        <f>Predictions!A39</f>
+        <v>Dalen Terry</v>
+      </c>
+      <c r="C39" t="str">
+        <f>Predictions!C39</f>
+        <v>Chicago Bulls</v>
+      </c>
+      <c r="D39" s="2">
+        <f>Predictions!G39</f>
+        <v>23.000000000000004</v>
+      </c>
+      <c r="E39" s="2">
+        <f>Predictions!H39</f>
+        <v>59</v>
+      </c>
+      <c r="F39" s="2">
+        <f>Predictions!M39</f>
+        <v>10702.214285714284</v>
+      </c>
+      <c r="H39" t="str">
+        <f>'[3]2022-23 Stats'!A$20</f>
+        <v>19</v>
+      </c>
+      <c r="I39" t="str">
+        <f>'[3]2022-23 Stats'!B$20</f>
+        <v>Chicago Bulls</v>
+      </c>
+      <c r="J39" t="str">
+        <f>'[3]2022-23 Stats'!C$20</f>
+        <v>40</v>
+      </c>
+      <c r="K39" t="str">
+        <f>'[3]2022-23 Stats'!D$20</f>
+        <v>42</v>
+      </c>
+      <c r="L39" t="str">
+        <f>'[3]2022-23 Stats'!E$20</f>
+        <v>9276</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" t="str">
+        <f>'[4]2022 Drafts'!$F$39</f>
+        <v>38</v>
+      </c>
+      <c r="B40" t="str">
+        <f>Predictions!A40</f>
+        <v>Kennedy Chandler</v>
+      </c>
+      <c r="C40" t="str">
+        <f>Predictions!C40</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="D40" s="2">
+        <f>Predictions!G40</f>
+        <v>21.777777777777779</v>
+      </c>
+      <c r="E40" s="2">
+        <f>Predictions!H40</f>
+        <v>60.222222222222221</v>
+      </c>
+      <c r="F40" s="2">
+        <f>Predictions!M40</f>
+        <v>10595.794871794873</v>
+      </c>
+      <c r="H40" t="str">
+        <f>'[3]2022-23 Stats'!A$7</f>
+        <v>5</v>
+      </c>
+      <c r="I40" t="str">
+        <f>'[3]2022-23 Stats'!B$7</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="J40" t="str">
+        <f>'[3]2022-23 Stats'!C$7</f>
+        <v>51</v>
+      </c>
+      <c r="K40" t="str">
+        <f>'[3]2022-23 Stats'!D$7</f>
+        <v>31</v>
+      </c>
+      <c r="L40" t="str">
+        <f>'[3]2022-23 Stats'!E$7</f>
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" t="str">
+        <f>'[4]2022 Drafts'!$F$48</f>
+        <v>47</v>
+      </c>
+      <c r="B41" t="str">
+        <f>Predictions!A41</f>
+        <v>Vince Williams Jr.</v>
+      </c>
+      <c r="C41" t="str">
+        <f>Predictions!C41</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="D41" s="2">
+        <f>Predictions!G41</f>
+        <v>29.866666666666667</v>
+      </c>
+      <c r="E41" s="2">
+        <f>Predictions!H41</f>
+        <v>52.133333333333333</v>
+      </c>
+      <c r="F41" s="2">
+        <f>Predictions!M41</f>
+        <v>10610.285714285714</v>
+      </c>
+      <c r="H41" t="str">
+        <f>'[3]2022-23 Stats'!A$7</f>
+        <v>5</v>
+      </c>
+      <c r="I41" t="str">
+        <f>'[3]2022-23 Stats'!B$7</f>
+        <v>Memphis Grizzlies</v>
+      </c>
+      <c r="J41" t="str">
+        <f>'[3]2022-23 Stats'!C$7</f>
+        <v>51</v>
+      </c>
+      <c r="K41" t="str">
+        <f>'[3]2022-23 Stats'!D$7</f>
+        <v>31</v>
+      </c>
+      <c r="L41" t="str">
+        <f>'[3]2022-23 Stats'!E$7</f>
+        <v>9587</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" t="str">
+        <f>'[4]2022 Drafts'!$F$45</f>
+        <v>44</v>
+      </c>
+      <c r="B42" t="str">
+        <f>Predictions!A42</f>
+        <v>Ryan Rollins</v>
+      </c>
+      <c r="C42" t="str">
+        <f>Predictions!C42</f>
+        <v>Golden State Warriors</v>
+      </c>
+      <c r="D42" s="2">
+        <f>Predictions!G42</f>
+        <v>30.916666666666664</v>
+      </c>
+      <c r="E42" s="2">
+        <f>Predictions!H42</f>
+        <v>51.083333333333336</v>
+      </c>
+      <c r="F42" s="2">
+        <f>Predictions!M42</f>
+        <v>10543.807692307691</v>
+      </c>
+      <c r="H42" t="str">
+        <f>'[3]2022-23 Stats'!A$12</f>
+        <v>11</v>
+      </c>
+      <c r="I42" t="str">
+        <f>'[3]2022-23 Stats'!B$12</f>
+        <v>Golden State Warriors</v>
+      </c>
+      <c r="J42" t="str">
+        <f>'[3]2022-23 Stats'!C$12</f>
+        <v>44</v>
+      </c>
+      <c r="K42" t="str">
+        <f>'[3]2022-23 Stats'!D$12</f>
+        <v>38</v>
+      </c>
+      <c r="L42" t="str">
+        <f>'[3]2022-23 Stats'!E$12</f>
+        <v>9753</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="AF1:AH1"/>
+    <mergeCell ref="AC1:AE1"/>
+    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="R1:T1"/>
+    <mergeCell ref="Y1:AB1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>